--- a/main/StructureDefinition-bc-batch-bundle.xlsx
+++ b/main/StructureDefinition-bc-batch-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-batch-bundle.xlsx
+++ b/main/StructureDefinition-bc-batch-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-batch-bundle.xlsx
+++ b/main/StructureDefinition-bc-batch-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-batch-bundle.xlsx
+++ b/main/StructureDefinition-bc-batch-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -580,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t>The specific bundle entries that are needed for creating or updating a BC Organization.</t>
+    <t>The specific bundle entries that are needed for creating or updating a BC Practitioner.</t>
   </si>
   <si>
     <t>open</t>
@@ -956,212 +956,6 @@
   </si>
   <si>
     <t>Bundle.entry:Practitioner.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundle {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-organization-bundle}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Organization.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundle {http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-location-bundle}
-</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:Location.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1498,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN145"/>
+  <dimension ref="A1:AN81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1507,17 +1301,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1526,26 +1320,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="81.328125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.74609375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7804,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8483,13 +8277,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>76</v>
@@ -8943,7 +8737,7 @@
         <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -8970,7 +8764,7 @@
         <v>76</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>76</v>
@@ -9055,7 +8849,7 @@
         <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>76</v>
@@ -9614,7 +9408,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -10623,11 +10417,9 @@
         <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10636,10 +10428,10 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>76</v>
@@ -10648,16 +10440,20 @@
         <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10705,19 +10501,19 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10729,7261 +10525,11 @@
         <v>76</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O142" s="2"/>
-      <c r="P142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O144" s="2"/>
-      <c r="P144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q144" s="2"/>
-      <c r="R144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN145" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN145">
+  <autoFilter ref="A1:AN81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17993,7 +10539,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
